--- a/data/trans_orig/P14B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE433AC8-6FB1-459A-B56E-47F4217B8427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2898B0D1-2548-400D-9CDC-94F853A25A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD733D08-8945-4ABC-B1BD-D317C6A63204}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4EE4593-251C-414B-8084-093EE154FF2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -103,7 +103,7 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>44,18%</t>
+    <t>51,78%</t>
   </si>
   <si>
     <t>35,12%</t>
@@ -115,16 +115,16 @@
     <t>19,96%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>55,82%</t>
+    <t>48,22%</t>
   </si>
   <si>
     <t>64,88%</t>
@@ -136,10 +136,10 @@
     <t>80,04%</t>
   </si>
   <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -151,31 +151,31 @@
     <t>2,52%</t>
   </si>
   <si>
-    <t>22,97%</t>
+    <t>22,88%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>89,91%</t>
   </si>
   <si>
-    <t>77,03%</t>
+    <t>77,12%</t>
   </si>
   <si>
     <t>97,48%</t>
@@ -184,19 +184,19 @@
     <t>83,98%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -205,55 +205,55 @@
     <t>16,58%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -262,55 +262,55 @@
     <t>23,03%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>76,97%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -319,109 +319,109 @@
     <t>32,05%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
   </si>
   <si>
     <t>35,21%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>64,79%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
   <si>
     <t>24,81%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
   </si>
   <si>
     <t>75,19%</t>
   </si>
   <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -442,13 +442,13 @@
     <t>12,29%</t>
   </si>
   <si>
-    <t>48,19%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>28,98%</t>
+    <t>22,23%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -457,19 +457,19 @@
     <t>87,71%</t>
   </si>
   <si>
-    <t>51,81%</t>
+    <t>41,15%</t>
   </si>
   <si>
     <t>94,96%</t>
   </si>
   <si>
-    <t>71,02%</t>
+    <t>77,77%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>20,3%</t>
+    <t>21,56%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -478,13 +478,13 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>14,07%</t>
+    <t>13,71%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>79,7%</t>
+    <t>78,44%</t>
   </si>
   <si>
     <t>90,51%</t>
@@ -493,496 +493,496 @@
     <t>95,95%</t>
   </si>
   <si>
-    <t>85,93%</t>
+    <t>86,29%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>95,71%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34795D87-18EE-422E-85CF-1612644CD326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7919CC8C-7DE9-4D0C-A5E0-279CD33BCDD6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E21214-A8C3-4688-86AC-A44EC66EA4EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F34FFC-F697-4D27-92D9-8325E08874EC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3384,10 +3384,10 @@
         <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,10 +3405,10 @@
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -3417,13 +3417,13 @@
         <v>108865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -3432,13 +3432,13 @@
         <v>184005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3506,13 @@
         <v>43281</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -3521,13 +3521,13 @@
         <v>53472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3536,13 +3536,13 @@
         <v>96753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3557,13 @@
         <v>141735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -3572,13 +3572,13 @@
         <v>199969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -3587,13 +3587,13 @@
         <v>341704</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3661,13 @@
         <v>73465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3676,13 +3676,13 @@
         <v>77410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -3691,13 +3691,13 @@
         <v>150875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3712,13 @@
         <v>315333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>344</v>
@@ -3727,13 +3727,13 @@
         <v>391928</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M23" s="7">
         <v>652</v>
@@ -3742,13 +3742,13 @@
         <v>707261</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A32657-08D0-4958-B276-F60602E174B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50374C86-53E7-44C4-B91E-A4F42D0C6BB7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,7 +3969,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3984,7 +3984,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,7 +4015,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -4030,7 +4030,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4105,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>13</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -4183,7 +4183,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -4254,13 +4254,13 @@
         <v>5266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4269,13 +4269,13 @@
         <v>159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -4284,13 +4284,13 @@
         <v>5425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4305,13 @@
         <v>22130</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4320,10 +4320,10 @@
         <v>7308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4335,13 +4335,13 @@
         <v>29438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,13 +4409,13 @@
         <v>12591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4424,13 +4424,13 @@
         <v>2691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4439,13 +4439,13 @@
         <v>15283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4460,13 @@
         <v>78147</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -4475,13 +4475,13 @@
         <v>78484</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -4490,13 +4490,13 @@
         <v>156631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4564,13 @@
         <v>5326</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -4579,13 +4579,13 @@
         <v>8408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4594,13 +4594,13 @@
         <v>13734</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4615,13 @@
         <v>135520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -4630,13 +4630,13 @@
         <v>138364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>388</v>
@@ -4645,13 +4645,13 @@
         <v>273883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,13 +4719,13 @@
         <v>13990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4734,13 +4734,13 @@
         <v>41245</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -4749,13 +4749,13 @@
         <v>55235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4770,13 @@
         <v>214457</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H20" s="7">
         <v>603</v>
@@ -4785,13 +4785,13 @@
         <v>421039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>932</v>
@@ -4800,13 +4800,13 @@
         <v>635495</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,13 +4874,13 @@
         <v>37173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -4889,13 +4889,13 @@
         <v>52503</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>138</v>
@@ -4904,13 +4904,13 @@
         <v>89676</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +4925,7 @@
         <v>456349</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>307</v>

--- a/data/trans_orig/P14B04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B04-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2898B0D1-2548-400D-9CDC-94F853A25A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F6E61B-BFDA-48AE-828D-985CCEF8694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4EE4593-251C-414B-8084-093EE154FF2D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBDF40D7-22F5-4C18-ADB7-08BC55054F86}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -103,607 +103,607 @@
     <t>12,32%</t>
   </si>
   <si>
-    <t>51,78%</t>
+    <t>49,58%</t>
   </si>
   <si>
     <t>35,12%</t>
   </si>
   <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo colesterol alto le limita en 2016 (Tasa respuesta: 12,06%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
     <t>79,24%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo colesterol alto le limita en 2015 (Tasa respuesta: 12,06%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
     <t>83,51%</t>
   </si>
   <si>
     <t>79,53%</t>
   </si>
   <si>
-    <t>87,07%</t>
+    <t>86,73%</t>
   </si>
   <si>
     <t>82,42%</t>
   </si>
   <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>Población cuyo colesterol alto le limita en 2023 (Tasa respuesta: 19,46%)</t>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7919CC8C-7DE9-4D0C-A5E0-279CD33BCDD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF46198-D3D3-4EAE-865B-BD9B1CB439F0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F34FFC-F697-4D27-92D9-8325E08874EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1203A7-5A25-43A3-91F7-685250E892E5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3351,13 +3351,13 @@
         <v>19687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3366,13 +3366,13 @@
         <v>10598</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -3381,13 +3381,13 @@
         <v>30284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3402,13 @@
         <v>75140</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>94</v>
@@ -3417,13 +3417,13 @@
         <v>108865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -3432,13 +3432,13 @@
         <v>184005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3506,13 @@
         <v>43281</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -3521,13 +3521,13 @@
         <v>53472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3536,13 +3536,13 @@
         <v>96753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3557,13 @@
         <v>141735</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H20" s="7">
         <v>167</v>
@@ -3572,13 +3572,13 @@
         <v>199969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>319</v>
@@ -3587,13 +3587,13 @@
         <v>341704</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3661,13 @@
         <v>73465</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -3676,13 +3676,13 @@
         <v>77410</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>140</v>
@@ -3691,13 +3691,13 @@
         <v>150875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,10 +3712,10 @@
         <v>315333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>215</v>
@@ -3826,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50374C86-53E7-44C4-B91E-A4F42D0C6BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA567C6B-890A-43E3-AA0C-5C03CD919F14}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
